--- a/config/project/demo/demo配置表.xlsx
+++ b/config/project/demo/demo配置表.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21240" windowHeight="7860" tabRatio="667" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21240" windowHeight="7860" tabRatio="667" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="测试条例" sheetId="62" r:id="rId1"/>
     <sheet name="提示" sheetId="37" r:id="rId2"/>
+    <sheet name="继电器" sheetId="63" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -1522,7 +1523,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -1630,4 +1631,19 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111107" footer="0.51111111111111107"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/config/project/demo/demo配置表.xlsx
+++ b/config/project/demo/demo配置表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21240" windowHeight="7860" tabRatio="667" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21240" windowHeight="7860" tabRatio="667"/>
   </bookViews>
   <sheets>
     <sheet name="测试条例" sheetId="62" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="40">
   <si>
     <t>组序号</t>
   </si>
@@ -44,9 +44,6 @@
     <t>技术要求</t>
   </si>
   <si>
-    <t>demo1</t>
-  </si>
-  <si>
     <t>demo2</t>
   </si>
   <si>
@@ -75,18 +72,6 @@
   </si>
   <si>
     <t>提示</t>
-  </si>
-  <si>
-    <t>demoGroup2</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>demoType</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>demo9</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>demoGroup1</t>
@@ -102,111 +87,6 @@
     <t>demoGroup5</t>
   </si>
   <si>
-    <r>
-      <t>demoGroup</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>6</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>demoGroup</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>7</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>demo</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>10</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>demo</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>11</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>demo</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>12</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>demo</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>13</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>demo</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>14</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>demoGroup2</t>
   </si>
   <si>
@@ -236,13 +116,49 @@
   </si>
   <si>
     <t>把充电枪插入汽车7</t>
+  </si>
+  <si>
+    <t>demo1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>NA</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>default</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>result</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>report</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>factory</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>person</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>approved</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -362,12 +278,6 @@
     <font>
       <sz val="11"/>
       <color indexed="20"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -796,7 +706,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -818,11 +728,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1187,8 +1094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B9"/>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1227,283 +1134,193 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="9">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>19</v>
+      <c r="B2" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="D2" s="5">
         <v>1</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="5">
-        <v>1</v>
-      </c>
-      <c r="G2" s="5">
-        <v>1</v>
+        <v>31</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
       <c r="D3" s="5">
         <v>2</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="5">
-        <v>1</v>
-      </c>
-      <c r="G3" s="5">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
       <c r="D4" s="5">
         <v>3</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="5">
-        <v>1</v>
-      </c>
-      <c r="G4" s="5">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
       <c r="D5" s="5">
         <v>4</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="5">
-        <v>1</v>
-      </c>
-      <c r="G5" s="5">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
       <c r="D6" s="5">
         <v>5</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="5">
-        <v>1</v>
-      </c>
-      <c r="G6" s="5">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
       <c r="D7" s="5">
         <v>6</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="5">
-        <v>1</v>
-      </c>
-      <c r="G7" s="5">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
       <c r="D8" s="5">
         <v>7</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="5">
-        <v>1</v>
-      </c>
-      <c r="G8" s="5">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
       <c r="D9" s="5">
         <v>8</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="5">
+        <v>13</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="1">
         <v>1</v>
       </c>
-      <c r="G9" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="1">
         <v>2</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="5">
-        <v>9</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="5">
-        <v>1</v>
-      </c>
-      <c r="G10" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
-        <v>2</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="5">
-        <v>10</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="5">
-        <v>1</v>
-      </c>
-      <c r="G11" s="5">
-        <v>1</v>
-      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
-        <v>2</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="5">
-        <v>11</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="5">
-        <v>1</v>
-      </c>
-      <c r="G12" s="5">
-        <v>1</v>
+      <c r="E12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
-        <v>2</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="5">
-        <v>12</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" s="5">
-        <v>1</v>
-      </c>
-      <c r="G13" s="5">
-        <v>1</v>
+      <c r="E13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="1">
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
-        <v>2</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="5">
-        <v>13</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="5">
-        <v>1</v>
-      </c>
-      <c r="G14" s="5">
-        <v>1</v>
+      <c r="E14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
-        <v>2</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="5">
-        <v>14</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" s="5">
-        <v>1</v>
-      </c>
-      <c r="G15" s="5">
-        <v>1</v>
+      <c r="E15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="1">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1536,13 +1353,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1550,10 +1367,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1561,10 +1378,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1572,10 +1389,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1583,10 +1400,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1594,10 +1411,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1605,10 +1422,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1616,10 +1433,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1637,7 +1454,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
